--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel05/field_16ha_100ha_18%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel05/field_16ha_100ha_18%_12m_0_LM/Planilha_Unificada.xlsx
@@ -2027,28 +2027,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>295.6086904941121</v>
+        <v>368.6969533216096</v>
       </c>
       <c r="AB2" t="n">
-        <v>404.4648516690586</v>
+        <v>504.4674372962279</v>
       </c>
       <c r="AC2" t="n">
-        <v>365.8632938957476</v>
+        <v>456.3217731051702</v>
       </c>
       <c r="AD2" t="n">
-        <v>295608.6904941121</v>
+        <v>368696.9533216095</v>
       </c>
       <c r="AE2" t="n">
-        <v>404464.8516690587</v>
+        <v>504467.4372962279</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.437136672241135e-06</v>
+        <v>2.659079106763756e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.57291666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>365863.2938957476</v>
+        <v>456321.7731051702</v>
       </c>
     </row>
     <row r="3">
@@ -2133,28 +2133,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>217.5187848959363</v>
+        <v>266.2159360046311</v>
       </c>
       <c r="AB3" t="n">
-        <v>297.6187977460021</v>
+        <v>364.2483882597403</v>
       </c>
       <c r="AC3" t="n">
-        <v>269.2144773998177</v>
+        <v>329.4850333100536</v>
       </c>
       <c r="AD3" t="n">
-        <v>217518.7848959363</v>
+        <v>266215.9360046311</v>
       </c>
       <c r="AE3" t="n">
-        <v>297618.7977460022</v>
+        <v>364248.3882597403</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.810857563247352e-06</v>
+        <v>3.350560600647051e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.391927083333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>269214.4773998177</v>
+        <v>329485.0333100536</v>
       </c>
     </row>
     <row r="4">
@@ -2239,28 +2239,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>187.510042088824</v>
+        <v>236.2924445435361</v>
       </c>
       <c r="AB4" t="n">
-        <v>256.5595119450347</v>
+        <v>323.305747111245</v>
       </c>
       <c r="AC4" t="n">
-        <v>232.0738322086119</v>
+        <v>292.4499003695098</v>
       </c>
       <c r="AD4" t="n">
-        <v>187510.042088824</v>
+        <v>236292.4445435361</v>
       </c>
       <c r="AE4" t="n">
-        <v>256559.5119450347</v>
+        <v>323305.7471112449</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.955808330416711e-06</v>
+        <v>3.618757470112747e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.766927083333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>232073.8322086119</v>
+        <v>292449.9003695098</v>
       </c>
     </row>
     <row r="5">
@@ -2345,28 +2345,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>178.0005428077912</v>
+        <v>226.6123530619111</v>
       </c>
       <c r="AB5" t="n">
-        <v>243.5481954992327</v>
+        <v>310.0610188905961</v>
       </c>
       <c r="AC5" t="n">
-        <v>220.3042975428958</v>
+        <v>280.4692304211426</v>
       </c>
       <c r="AD5" t="n">
-        <v>178000.5428077912</v>
+        <v>226612.3530619111</v>
       </c>
       <c r="AE5" t="n">
-        <v>243548.1954992327</v>
+        <v>310061.0188905961</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.026182978245314e-06</v>
+        <v>3.748968993693919e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>220304.2975428958</v>
+        <v>280469.2304211426</v>
       </c>
     </row>
   </sheetData>
@@ -2642,28 +2642,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>240.1130413794106</v>
+        <v>298.7610098424075</v>
       </c>
       <c r="AB2" t="n">
-        <v>328.5332562549224</v>
+        <v>408.777994071911</v>
       </c>
       <c r="AC2" t="n">
-        <v>297.1785033773714</v>
+        <v>369.764796041205</v>
       </c>
       <c r="AD2" t="n">
-        <v>240113.0413794106</v>
+        <v>298761.0098424075</v>
       </c>
       <c r="AE2" t="n">
-        <v>328533.2562549224</v>
+        <v>408777.994071911</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.658717189341729e-06</v>
+        <v>3.161770956687809e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.479166666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>297178.5033773715</v>
+        <v>369764.7960412051</v>
       </c>
     </row>
     <row r="3">
@@ -2748,28 +2748,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>178.204423725271</v>
+        <v>225.2592722561393</v>
       </c>
       <c r="AB3" t="n">
-        <v>243.8271543651197</v>
+        <v>308.2096740384279</v>
       </c>
       <c r="AC3" t="n">
-        <v>220.5566329661438</v>
+        <v>278.794575323286</v>
       </c>
       <c r="AD3" t="n">
-        <v>178204.423725271</v>
+        <v>225259.2722561393</v>
       </c>
       <c r="AE3" t="n">
-        <v>243827.1543651197</v>
+        <v>308209.6740384279</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.001307218782152e-06</v>
+        <v>3.814800425542245e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.858072916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>220556.6329661438</v>
+        <v>278794.575323286</v>
       </c>
     </row>
     <row r="4">
@@ -2854,28 +2854,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>168.3197606062826</v>
+        <v>215.3746091371509</v>
       </c>
       <c r="AB4" t="n">
-        <v>230.3025222051668</v>
+        <v>294.6850418784751</v>
       </c>
       <c r="AC4" t="n">
-        <v>208.3227727175921</v>
+        <v>266.5607150747343</v>
       </c>
       <c r="AD4" t="n">
-        <v>168319.7606062826</v>
+        <v>215374.6091371509</v>
       </c>
       <c r="AE4" t="n">
-        <v>230302.5222051668</v>
+        <v>294685.0418784751</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.087437655419732e-06</v>
+        <v>3.978978330490354e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.532552083333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>208322.7727175921</v>
+        <v>266560.7150747343</v>
       </c>
     </row>
   </sheetData>
@@ -3151,28 +3151,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>139.8992793347932</v>
+        <v>181.7530492995562</v>
       </c>
       <c r="AB2" t="n">
-        <v>191.4163659063913</v>
+        <v>248.6825404301657</v>
       </c>
       <c r="AC2" t="n">
-        <v>173.1478565988962</v>
+        <v>224.9486277997205</v>
       </c>
       <c r="AD2" t="n">
-        <v>139899.2793347932</v>
+        <v>181753.0492995562</v>
       </c>
       <c r="AE2" t="n">
-        <v>191416.3659063913</v>
+        <v>248682.5404301657</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.275873449111424e-06</v>
+        <v>4.847014843847675e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.708333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>173147.8565988962</v>
+        <v>224948.6277997205</v>
       </c>
     </row>
   </sheetData>
@@ -3448,28 +3448,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>171.3258745545244</v>
+        <v>215.1278073933047</v>
       </c>
       <c r="AB2" t="n">
-        <v>234.4156199295367</v>
+        <v>294.3473568444202</v>
       </c>
       <c r="AC2" t="n">
-        <v>212.0433221679184</v>
+        <v>266.2552582263856</v>
       </c>
       <c r="AD2" t="n">
-        <v>171325.8745545244</v>
+        <v>215127.8073933047</v>
       </c>
       <c r="AE2" t="n">
-        <v>234415.6199295367</v>
+        <v>294347.3568444203</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.094848731412662e-06</v>
+        <v>4.253267180301787e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.0078125</v>
       </c>
       <c r="AH2" t="n">
-        <v>212043.3221679184</v>
+        <v>266255.2582263856</v>
       </c>
     </row>
     <row r="3">
@@ -3554,28 +3554,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>149.7841880610049</v>
+        <v>193.6713722458057</v>
       </c>
       <c r="AB3" t="n">
-        <v>204.9413341169825</v>
+        <v>264.9897156845153</v>
       </c>
       <c r="AC3" t="n">
-        <v>185.382020825885</v>
+        <v>239.6994691350644</v>
       </c>
       <c r="AD3" t="n">
-        <v>149784.1880610049</v>
+        <v>193671.3722458057</v>
       </c>
       <c r="AE3" t="n">
-        <v>204941.3341169825</v>
+        <v>264989.7156845153</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.226050651467915e-06</v>
+        <v>4.519652438671862e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.5390625</v>
       </c>
       <c r="AH3" t="n">
-        <v>185382.020825885</v>
+        <v>239699.4691350644</v>
       </c>
     </row>
   </sheetData>
@@ -3851,28 +3851,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>132.7393375906717</v>
+        <v>182.8010973664952</v>
       </c>
       <c r="AB2" t="n">
-        <v>181.6198177377526</v>
+        <v>250.1165260319684</v>
       </c>
       <c r="AC2" t="n">
-        <v>164.2862772379276</v>
+        <v>226.245755828299</v>
       </c>
       <c r="AD2" t="n">
-        <v>132739.3375906717</v>
+        <v>182801.0973664952</v>
       </c>
       <c r="AE2" t="n">
-        <v>181619.8177377526</v>
+        <v>250116.5260319684</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.283121449190106e-06</v>
+        <v>5.084065518838583e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.981770833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>164286.2772379276</v>
+        <v>226245.755828299</v>
       </c>
     </row>
   </sheetData>
@@ -4148,28 +4148,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>250.3873410916095</v>
+        <v>309.7734927295718</v>
       </c>
       <c r="AB2" t="n">
-        <v>342.591006391259</v>
+        <v>423.8457589945855</v>
       </c>
       <c r="AC2" t="n">
-        <v>309.8946015708767</v>
+        <v>383.3945146274004</v>
       </c>
       <c r="AD2" t="n">
-        <v>250387.3410916095</v>
+        <v>309773.4927295718</v>
       </c>
       <c r="AE2" t="n">
-        <v>342591.006391259</v>
+        <v>423845.7589945855</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.599906313056645e-06</v>
+        <v>3.025044729927805e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.739583333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>309894.6015708767</v>
+        <v>383394.5146274004</v>
       </c>
     </row>
     <row r="3">
@@ -4254,28 +4254,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>185.2627981714112</v>
+        <v>244.4782681002264</v>
       </c>
       <c r="AB3" t="n">
-        <v>253.4847336758274</v>
+        <v>334.5059520345508</v>
       </c>
       <c r="AC3" t="n">
-        <v>229.2925064619384</v>
+        <v>302.5811734545252</v>
       </c>
       <c r="AD3" t="n">
-        <v>185262.7981714112</v>
+        <v>244478.2681002264</v>
       </c>
       <c r="AE3" t="n">
-        <v>253484.7336758274</v>
+        <v>334505.9520345508</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.949229999591007e-06</v>
+        <v>3.685533265016367e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.994791666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>229292.5064619384</v>
+        <v>302581.1734545252</v>
       </c>
     </row>
     <row r="4">
@@ -4360,28 +4360,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>170.7086473808689</v>
+        <v>218.2175686912356</v>
       </c>
       <c r="AB4" t="n">
-        <v>233.5711024804005</v>
+        <v>298.5749045628955</v>
       </c>
       <c r="AC4" t="n">
-        <v>211.2794042788398</v>
+        <v>270.0793347240113</v>
       </c>
       <c r="AD4" t="n">
-        <v>170708.6473808689</v>
+        <v>218217.5686912356</v>
       </c>
       <c r="AE4" t="n">
-        <v>233571.1024804005</v>
+        <v>298574.9045628955</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.073161180065145e-06</v>
+        <v>3.919857838466405e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.513020833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>211279.4042788398</v>
+        <v>270079.3347240114</v>
       </c>
     </row>
     <row r="5">
@@ -4466,28 +4466,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>171.2542157052587</v>
+        <v>218.7631370156254</v>
       </c>
       <c r="AB5" t="n">
-        <v>234.3175731306061</v>
+        <v>299.321375213101</v>
       </c>
       <c r="AC5" t="n">
-        <v>211.9546328178681</v>
+        <v>270.7545632630396</v>
       </c>
       <c r="AD5" t="n">
-        <v>171254.2157052587</v>
+        <v>218763.1370156254</v>
       </c>
       <c r="AE5" t="n">
-        <v>234317.5731306061</v>
+        <v>299321.375213101</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.072132209074531e-06</v>
+        <v>3.917912297501286e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.51953125</v>
       </c>
       <c r="AH5" t="n">
-        <v>211954.6328178681</v>
+        <v>270754.5632630396</v>
       </c>
     </row>
   </sheetData>
@@ -4763,28 +4763,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>138.8633167717005</v>
+        <v>177.9764213648744</v>
       </c>
       <c r="AB2" t="n">
-        <v>189.9989162241257</v>
+        <v>243.5151914768711</v>
       </c>
       <c r="AC2" t="n">
-        <v>171.8656863249025</v>
+        <v>220.2744433781069</v>
       </c>
       <c r="AD2" t="n">
-        <v>138863.3167717005</v>
+        <v>177976.4213648744</v>
       </c>
       <c r="AE2" t="n">
-        <v>189998.9162241257</v>
+        <v>243515.1914768711</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.26253338698827e-06</v>
+        <v>5.187008809666167e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.2421875</v>
       </c>
       <c r="AH2" t="n">
-        <v>171865.6863249025</v>
+        <v>220274.4433781069</v>
       </c>
     </row>
   </sheetData>
@@ -5060,28 +5060,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>199.0710602405556</v>
+        <v>255.9621727192681</v>
       </c>
       <c r="AB2" t="n">
-        <v>272.3778070163501</v>
+        <v>350.2187369684312</v>
       </c>
       <c r="AC2" t="n">
-        <v>246.3824513994426</v>
+        <v>316.7943522473532</v>
       </c>
       <c r="AD2" t="n">
-        <v>199071.0602405556</v>
+        <v>255962.1727192681</v>
       </c>
       <c r="AE2" t="n">
-        <v>272377.8070163501</v>
+        <v>350218.7369684313</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.859257869720373e-06</v>
+        <v>3.644119729830547e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.7109375</v>
       </c>
       <c r="AH2" t="n">
-        <v>246382.4513994426</v>
+        <v>316794.3522473532</v>
       </c>
     </row>
     <row r="3">
@@ -5166,28 +5166,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>159.1981701582131</v>
+        <v>204.7793328248405</v>
       </c>
       <c r="AB3" t="n">
-        <v>217.8219597379549</v>
+        <v>280.1881173973778</v>
       </c>
       <c r="AC3" t="n">
-        <v>197.0333376156675</v>
+        <v>253.447356719547</v>
       </c>
       <c r="AD3" t="n">
-        <v>159198.1701582131</v>
+        <v>204779.3328248404</v>
       </c>
       <c r="AE3" t="n">
-        <v>217821.9597379549</v>
+        <v>280188.1173973778</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.154912063578014e-06</v>
+        <v>4.223597863870023e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.513020833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>197033.3376156675</v>
+        <v>253447.356719547</v>
       </c>
     </row>
     <row r="4">
@@ -5272,28 +5272,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>159.0971305462848</v>
+        <v>204.50770101232</v>
       </c>
       <c r="AB4" t="n">
-        <v>217.6837128833617</v>
+        <v>279.8164587679378</v>
       </c>
       <c r="AC4" t="n">
-        <v>196.9082848468459</v>
+        <v>253.1111686680744</v>
       </c>
       <c r="AD4" t="n">
-        <v>159097.1305462848</v>
+        <v>204507.70101232</v>
       </c>
       <c r="AE4" t="n">
-        <v>217683.7128833617</v>
+        <v>279816.4587679378</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.161927755488806e-06</v>
+        <v>4.237348523058775e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.493489583333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>196908.2848468459</v>
+        <v>253111.1686680744</v>
       </c>
     </row>
   </sheetData>
@@ -5569,28 +5569,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>230.2763355697369</v>
+        <v>276.8599341423091</v>
       </c>
       <c r="AB2" t="n">
-        <v>315.074241401301</v>
+        <v>378.8119760917679</v>
       </c>
       <c r="AC2" t="n">
-        <v>285.0039980115295</v>
+        <v>342.6586927595165</v>
       </c>
       <c r="AD2" t="n">
-        <v>230276.335569737</v>
+        <v>276859.9341423091</v>
       </c>
       <c r="AE2" t="n">
-        <v>315074.241401301</v>
+        <v>378811.9760917679</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.720103889247319e-06</v>
+        <v>3.307249047905037e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.225260416666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>285003.9980115294</v>
+        <v>342658.6927595165</v>
       </c>
     </row>
     <row r="3">
@@ -5675,28 +5675,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>170.6247904566429</v>
+        <v>217.2082995206605</v>
       </c>
       <c r="AB3" t="n">
-        <v>233.4563657371681</v>
+        <v>297.193977957902</v>
       </c>
       <c r="AC3" t="n">
-        <v>211.1756178493474</v>
+        <v>268.8302018160554</v>
       </c>
       <c r="AD3" t="n">
-        <v>170624.7904566429</v>
+        <v>217208.2995206605</v>
       </c>
       <c r="AE3" t="n">
-        <v>233456.3657371681</v>
+        <v>297193.977957902</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.065314206957272e-06</v>
+        <v>3.970985989441062e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.682291666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>211175.6178493474</v>
+        <v>268830.2018160553</v>
       </c>
     </row>
     <row r="4">
@@ -5781,28 +5781,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>165.2734026603576</v>
+        <v>211.8569117243753</v>
       </c>
       <c r="AB4" t="n">
-        <v>226.1343608677269</v>
+        <v>289.8719730884607</v>
       </c>
       <c r="AC4" t="n">
-        <v>204.552414848145</v>
+        <v>262.2069988148529</v>
       </c>
       <c r="AD4" t="n">
-        <v>165273.4026603576</v>
+        <v>211856.9117243753</v>
       </c>
       <c r="AE4" t="n">
-        <v>226134.3608677269</v>
+        <v>289871.9730884607</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.113163935361779e-06</v>
+        <v>4.062986809680803e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.513020833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>204552.414848145</v>
+        <v>262206.9988148529</v>
       </c>
     </row>
   </sheetData>
@@ -6078,28 +6078,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>284.1101721365215</v>
+        <v>344.4891979873486</v>
       </c>
       <c r="AB2" t="n">
-        <v>388.7320715733752</v>
+        <v>471.3453184771004</v>
       </c>
       <c r="AC2" t="n">
-        <v>351.6320282513005</v>
+        <v>426.3607828189544</v>
       </c>
       <c r="AD2" t="n">
-        <v>284110.1721365215</v>
+        <v>344489.1979873487</v>
       </c>
       <c r="AE2" t="n">
-        <v>388732.0715733751</v>
+        <v>471345.3184771003</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.489164112814877e-06</v>
+        <v>2.774199794401059e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.28645833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>351632.0282513006</v>
+        <v>426360.7828189544</v>
       </c>
     </row>
     <row r="3">
@@ -6184,28 +6184,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>210.210463439445</v>
+        <v>258.4966338509053</v>
       </c>
       <c r="AB3" t="n">
-        <v>287.6192299088484</v>
+        <v>353.6864985014365</v>
       </c>
       <c r="AC3" t="n">
-        <v>260.1692542825571</v>
+        <v>319.931155486577</v>
       </c>
       <c r="AD3" t="n">
-        <v>210210.463439445</v>
+        <v>258496.6338509052</v>
       </c>
       <c r="AE3" t="n">
-        <v>287619.2299088484</v>
+        <v>353686.4985014365</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.859308201778959e-06</v>
+        <v>3.463750158035543e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.235677083333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>260169.2542825571</v>
+        <v>319931.155486577</v>
       </c>
     </row>
     <row r="4">
@@ -6290,28 +6290,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>181.1765455783011</v>
+        <v>229.5479673357787</v>
       </c>
       <c r="AB4" t="n">
-        <v>247.8937426051956</v>
+        <v>314.0776558502612</v>
       </c>
       <c r="AC4" t="n">
-        <v>224.2351117320806</v>
+        <v>284.1025251867638</v>
       </c>
       <c r="AD4" t="n">
-        <v>181176.5455783011</v>
+        <v>229547.9673357786</v>
       </c>
       <c r="AE4" t="n">
-        <v>247893.7426051956</v>
+        <v>314077.6558502612</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.995700604761719e-06</v>
+        <v>3.717838859916367e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.67578125</v>
       </c>
       <c r="AH4" t="n">
-        <v>224235.1117320806</v>
+        <v>284102.5251867638</v>
       </c>
     </row>
     <row r="5">
@@ -6396,28 +6396,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>177.303839347084</v>
+        <v>225.6752611045615</v>
       </c>
       <c r="AB5" t="n">
-        <v>242.5949350879062</v>
+        <v>308.7788483329718</v>
       </c>
       <c r="AC5" t="n">
-        <v>219.4420149673166</v>
+        <v>279.3094284219998</v>
       </c>
       <c r="AD5" t="n">
-        <v>177303.839347084</v>
+        <v>225675.2611045615</v>
       </c>
       <c r="AE5" t="n">
-        <v>242594.9350879062</v>
+        <v>308778.8483329718</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.026287136394907e-06</v>
+        <v>3.774819248469941e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.55859375</v>
       </c>
       <c r="AH5" t="n">
-        <v>219442.0149673166</v>
+        <v>279309.4284219998</v>
       </c>
     </row>
   </sheetData>
@@ -6693,28 +6693,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>180.5853114111822</v>
+        <v>224.9819940215971</v>
       </c>
       <c r="AB2" t="n">
-        <v>247.0847899343333</v>
+        <v>307.8302897252752</v>
       </c>
       <c r="AC2" t="n">
-        <v>223.503364368753</v>
+        <v>278.4513989165112</v>
       </c>
       <c r="AD2" t="n">
-        <v>180585.3114111822</v>
+        <v>224981.9940215971</v>
       </c>
       <c r="AE2" t="n">
-        <v>247084.7899343333</v>
+        <v>307830.2897252752</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.010265278636823e-06</v>
+        <v>4.029571433804202e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.2421875</v>
       </c>
       <c r="AH2" t="n">
-        <v>223503.364368753</v>
+        <v>278451.3989165112</v>
       </c>
     </row>
     <row r="3">
@@ -6799,28 +6799,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>152.7577374060797</v>
+        <v>197.2396713625153</v>
       </c>
       <c r="AB3" t="n">
-        <v>209.0098755146504</v>
+        <v>269.8720199582416</v>
       </c>
       <c r="AC3" t="n">
-        <v>189.0622663427945</v>
+        <v>244.115813141265</v>
       </c>
       <c r="AD3" t="n">
-        <v>152757.7374060797</v>
+        <v>197239.6713625152</v>
       </c>
       <c r="AE3" t="n">
-        <v>209009.8755146504</v>
+        <v>269872.0199582416</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.204961444815495e-06</v>
+        <v>4.419839383931053e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.513020833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>189062.2663427945</v>
+        <v>244115.813141265</v>
       </c>
     </row>
   </sheetData>
@@ -7096,28 +7096,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>143.5641353394121</v>
+        <v>186.1451313668997</v>
       </c>
       <c r="AB2" t="n">
-        <v>196.4307835739442</v>
+        <v>254.6919808796875</v>
       </c>
       <c r="AC2" t="n">
-        <v>177.6837052820389</v>
+        <v>230.3845356870446</v>
       </c>
       <c r="AD2" t="n">
-        <v>143564.1353394121</v>
+        <v>186145.1313668997</v>
       </c>
       <c r="AE2" t="n">
-        <v>196430.7835739442</v>
+        <v>254691.9808796875</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.256165775003612e-06</v>
+        <v>4.720039897215389e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.649739583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>177683.7052820389</v>
+        <v>230384.5356870446</v>
       </c>
     </row>
     <row r="3">
@@ -7202,28 +7202,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>143.6993320424909</v>
+        <v>186.2803280699786</v>
       </c>
       <c r="AB3" t="n">
-        <v>196.6157656675542</v>
+        <v>254.8769629732975</v>
       </c>
       <c r="AC3" t="n">
-        <v>177.8510329442588</v>
+        <v>230.5518633492645</v>
       </c>
       <c r="AD3" t="n">
-        <v>143699.3320424909</v>
+        <v>186280.3280699786</v>
       </c>
       <c r="AE3" t="n">
-        <v>196615.7656675542</v>
+        <v>254876.9629732975</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.260991401044258e-06</v>
+        <v>4.73013540867702e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.63671875</v>
       </c>
       <c r="AH3" t="n">
-        <v>177851.0329442588</v>
+        <v>230551.8633492645</v>
       </c>
     </row>
   </sheetData>
@@ -12144,28 +12144,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>136.3764570731513</v>
+        <v>177.4379978847267</v>
       </c>
       <c r="AB2" t="n">
-        <v>186.5962850720657</v>
+        <v>242.7784967177659</v>
       </c>
       <c r="AC2" t="n">
-        <v>168.7877975143712</v>
+        <v>219.6080577328529</v>
       </c>
       <c r="AD2" t="n">
-        <v>136376.4570731513</v>
+        <v>177437.9978847267</v>
       </c>
       <c r="AE2" t="n">
-        <v>186596.2850720657</v>
+        <v>242778.4967177659</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.284447013883334e-06</v>
+        <v>4.966058322062476e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.819010416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>168787.7975143712</v>
+        <v>219608.0577328529</v>
       </c>
     </row>
   </sheetData>
@@ -12441,28 +12441,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>134.8840329779956</v>
+        <v>182.3605788286262</v>
       </c>
       <c r="AB2" t="n">
-        <v>184.5542845839705</v>
+        <v>249.51378913415</v>
       </c>
       <c r="AC2" t="n">
-        <v>166.9406826868934</v>
+        <v>225.7005432940617</v>
       </c>
       <c r="AD2" t="n">
-        <v>134884.0329779956</v>
+        <v>182360.5788286262</v>
       </c>
       <c r="AE2" t="n">
-        <v>184554.2845839705</v>
+        <v>249513.78913415</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.189728673282694e-06</v>
+        <v>5.208328692202477e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AH2" t="n">
-        <v>166940.6826868934</v>
+        <v>225700.5432940617</v>
       </c>
     </row>
   </sheetData>
@@ -12738,28 +12738,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>208.9177544310361</v>
+        <v>266.4486950822349</v>
       </c>
       <c r="AB2" t="n">
-        <v>285.8504884132477</v>
+        <v>364.5668594983237</v>
       </c>
       <c r="AC2" t="n">
-        <v>258.5693189928517</v>
+        <v>329.7731101006038</v>
       </c>
       <c r="AD2" t="n">
-        <v>208917.7544310361</v>
+        <v>266448.6950822349</v>
       </c>
       <c r="AE2" t="n">
-        <v>285850.4884132477</v>
+        <v>364566.8594983236</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.784815067138191e-06</v>
+        <v>3.463573201375077e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.977864583333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>258569.3189928517</v>
+        <v>329773.1101006038</v>
       </c>
     </row>
     <row r="3">
@@ -12844,28 +12844,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>163.9509631245785</v>
+        <v>210.0439883291922</v>
       </c>
       <c r="AB3" t="n">
-        <v>224.3249407529601</v>
+        <v>287.391451318637</v>
       </c>
       <c r="AC3" t="n">
-        <v>202.9156832495938</v>
+        <v>259.9632145613061</v>
       </c>
       <c r="AD3" t="n">
-        <v>163950.9631245785</v>
+        <v>210043.9883291922</v>
       </c>
       <c r="AE3" t="n">
-        <v>224324.9407529601</v>
+        <v>287391.451318637</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.12076809148634e-06</v>
+        <v>4.115516314965492e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.55859375</v>
       </c>
       <c r="AH3" t="n">
-        <v>202915.6832495938</v>
+        <v>259963.2145613061</v>
       </c>
     </row>
     <row r="4">
@@ -12950,28 +12950,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>162.4360078608178</v>
+        <v>208.5290330654315</v>
       </c>
       <c r="AB4" t="n">
-        <v>222.2521121259745</v>
+        <v>285.3186226916514</v>
       </c>
       <c r="AC4" t="n">
-        <v>201.0406824775338</v>
+        <v>258.0882137892461</v>
       </c>
       <c r="AD4" t="n">
-        <v>162436.0078608178</v>
+        <v>208529.0330654315</v>
       </c>
       <c r="AE4" t="n">
-        <v>222252.1121259745</v>
+        <v>285318.6226916514</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.132708382913048e-06</v>
+        <v>4.138687384149968e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.513020833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>201040.6824775338</v>
+        <v>258088.2137892461</v>
       </c>
     </row>
   </sheetData>
@@ -13247,28 +13247,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>273.0480766711617</v>
+        <v>332.8969788457634</v>
       </c>
       <c r="AB2" t="n">
-        <v>373.5964245324608</v>
+        <v>455.4843328349686</v>
       </c>
       <c r="AC2" t="n">
-        <v>337.9409061209571</v>
+        <v>412.0135473854746</v>
       </c>
       <c r="AD2" t="n">
-        <v>273048.0766711616</v>
+        <v>332896.9788457634</v>
       </c>
       <c r="AE2" t="n">
-        <v>373596.4245324609</v>
+        <v>455484.3328349686</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.543185980987438e-06</v>
+        <v>2.895622183003553e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.00651041666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>337940.9061209571</v>
+        <v>412013.5473854746</v>
       </c>
     </row>
     <row r="3">
@@ -13353,28 +13353,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>204.2229321609184</v>
+        <v>252.0850036313951</v>
       </c>
       <c r="AB3" t="n">
-        <v>279.4268254623353</v>
+        <v>344.913823173778</v>
       </c>
       <c r="AC3" t="n">
-        <v>252.7587214183047</v>
+        <v>311.9957319797666</v>
       </c>
       <c r="AD3" t="n">
-        <v>204222.9321609185</v>
+        <v>252085.0036313951</v>
       </c>
       <c r="AE3" t="n">
-        <v>279426.8254623353</v>
+        <v>344913.823173778</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.897263750730359e-06</v>
+        <v>3.560010958697318e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.138020833333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>252758.7214183047</v>
+        <v>311995.7319797666</v>
       </c>
     </row>
     <row r="4">
@@ -13459,28 +13459,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>174.6700570251745</v>
+        <v>222.6173798416718</v>
       </c>
       <c r="AB4" t="n">
-        <v>238.9912779207961</v>
+        <v>304.5949202848879</v>
       </c>
       <c r="AC4" t="n">
-        <v>216.1822857824697</v>
+        <v>275.5248085946439</v>
       </c>
       <c r="AD4" t="n">
-        <v>174670.0570251746</v>
+        <v>222617.3798416718</v>
       </c>
       <c r="AE4" t="n">
-        <v>238991.2779207961</v>
+        <v>304594.9202848879</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.045395180832523e-06</v>
+        <v>3.837963623047862e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.552083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>216182.2857824697</v>
+        <v>275524.8085946439</v>
       </c>
     </row>
     <row r="5">
@@ -13565,28 +13565,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>174.1803769162896</v>
+        <v>222.1276997327869</v>
       </c>
       <c r="AB5" t="n">
-        <v>238.3212759926583</v>
+        <v>303.9249183567501</v>
       </c>
       <c r="AC5" t="n">
-        <v>215.5762278979996</v>
+        <v>274.9187507101738</v>
       </c>
       <c r="AD5" t="n">
-        <v>174180.3769162896</v>
+        <v>222127.6997327869</v>
       </c>
       <c r="AE5" t="n">
-        <v>238321.2759926583</v>
+        <v>303924.9183567502</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.051088893712811e-06</v>
+        <v>3.848647261651982e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.532552083333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>215576.2278979996</v>
+        <v>274918.7507101737</v>
       </c>
     </row>
   </sheetData>
@@ -13862,28 +13862,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>140.3118894004689</v>
+        <v>195.1023654707253</v>
       </c>
       <c r="AB2" t="n">
-        <v>191.9809172013198</v>
+        <v>266.9476637458148</v>
       </c>
       <c r="AC2" t="n">
-        <v>173.6585279105896</v>
+        <v>241.4705533813916</v>
       </c>
       <c r="AD2" t="n">
-        <v>140311.8894004689</v>
+        <v>195102.3654707253</v>
       </c>
       <c r="AE2" t="n">
-        <v>191980.9172013198</v>
+        <v>266947.6637458148</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.002260731281397e-06</v>
+        <v>5.007502138305605e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.908854166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>173658.5279105896</v>
+        <v>241470.5533813916</v>
       </c>
     </row>
   </sheetData>
@@ -14159,28 +14159,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>151.0299461198491</v>
+        <v>194.2857340172202</v>
       </c>
       <c r="AB2" t="n">
-        <v>206.645835252059</v>
+        <v>265.8303125638927</v>
       </c>
       <c r="AC2" t="n">
-        <v>186.9238467649127</v>
+        <v>240.4598406280594</v>
       </c>
       <c r="AD2" t="n">
-        <v>151029.9461198491</v>
+        <v>194285.7340172202</v>
       </c>
       <c r="AE2" t="n">
-        <v>206645.835252059</v>
+        <v>265830.3125638927</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.184062232949928e-06</v>
+        <v>4.497603227816595e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.786458333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>186923.8467649127</v>
+        <v>240459.8406280594</v>
       </c>
     </row>
     <row r="3">
@@ -14265,28 +14265,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>146.843112601056</v>
+        <v>190.098900498427</v>
       </c>
       <c r="AB3" t="n">
-        <v>200.9172249215905</v>
+        <v>260.1017022334241</v>
       </c>
       <c r="AC3" t="n">
-        <v>181.7419669642271</v>
+        <v>235.2779608273739</v>
       </c>
       <c r="AD3" t="n">
-        <v>146843.112601056</v>
+        <v>190098.900498427</v>
       </c>
       <c r="AE3" t="n">
-        <v>200917.2249215905</v>
+        <v>260101.7022334241</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.243921387352774e-06</v>
+        <v>4.620870194295377e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.578125</v>
       </c>
       <c r="AH3" t="n">
-        <v>181741.9669642271</v>
+        <v>235277.9608273739</v>
       </c>
     </row>
   </sheetData>
@@ -14562,28 +14562,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>190.0387691174904</v>
+        <v>234.9987470865634</v>
       </c>
       <c r="AB2" t="n">
-        <v>260.0194278252173</v>
+        <v>321.5356531767121</v>
       </c>
       <c r="AC2" t="n">
-        <v>235.2035385732134</v>
+        <v>290.8487417157457</v>
       </c>
       <c r="AD2" t="n">
-        <v>190038.7691174904</v>
+        <v>234998.7470865634</v>
       </c>
       <c r="AE2" t="n">
-        <v>260019.4278252173</v>
+        <v>321535.6531767121</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.928908113882076e-06</v>
+        <v>3.821522108312148e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.489583333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>235203.5385732134</v>
+        <v>290848.7417157457</v>
       </c>
     </row>
     <row r="3">
@@ -14668,28 +14668,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>156.1506352308374</v>
+        <v>201.195864545931</v>
       </c>
       <c r="AB3" t="n">
-        <v>213.6521880025695</v>
+        <v>275.2850580067135</v>
       </c>
       <c r="AC3" t="n">
-        <v>193.2615230423945</v>
+        <v>249.0122384356391</v>
       </c>
       <c r="AD3" t="n">
-        <v>156150.6352308374</v>
+        <v>201195.864545931</v>
       </c>
       <c r="AE3" t="n">
-        <v>213652.1880025695</v>
+        <v>275285.0580067135</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.178024261090231e-06</v>
+        <v>4.315067061149499e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.51953125</v>
       </c>
       <c r="AH3" t="n">
-        <v>193261.5230423945</v>
+        <v>249012.2384356391</v>
       </c>
     </row>
   </sheetData>
